--- a/POS_fruit_juice.xlsx
+++ b/POS_fruit_juice.xlsx
@@ -2,43 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -66,40 +50,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -456,280 +418,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.83" customWidth="1" style="4" min="1" max="1"/>
-    <col width="16.84" customWidth="1" style="4" min="2" max="2"/>
-    <col width="16.74" customWidth="1" style="4" min="3" max="4"/>
-    <col width="8.43" customWidth="1" style="4" min="5" max="1025"/>
+    <col width="13.85546875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="16.85546875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="1" min="3" max="4"/>
+    <col width="8.42578125" customWidth="1" style="1" min="5" max="1025"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="5">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Customer Id</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>No of Items</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Total Amount</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>V.A.T</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="3">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="13.9" customHeight="1" s="1">
+      <c r="A2" t="inlineStr">
         <is>
           <t>03/15/19</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" t="n">
         <v>469089</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="3">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="3" ht="13.9" customHeight="1" s="1">
+      <c r="A3" t="inlineStr">
         <is>
           <t>03/15/19</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" t="n">
         <v>174583</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" t="n">
         <v>120</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" t="n">
         <v>19.2</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="3">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4" ht="13.9" customHeight="1" s="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>03/15/19</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" t="n">
         <v>178373</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" t="n">
         <v>100</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="3">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="5" ht="13.9" customHeight="1" s="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>03/15/19</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" t="n">
         <v>181383</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" t="n">
         <v>100</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="3">
-      <c r="A6" s="4" t="inlineStr">
+    <row r="6" ht="13.9" customHeight="1" s="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>03/21/19</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" t="n">
         <v>976857</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" t="n">
         <v>470</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" t="n">
         <v>75.2</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="3">
-      <c r="A7" s="4" t="inlineStr">
+    <row r="7" ht="13.9" customHeight="1" s="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>03/21/19</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" t="n">
         <v>442154</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" t="n">
         <v>180</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" t="n">
         <v>28.8</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="3">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="8" ht="13.9" customHeight="1" s="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>03/21/19</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" t="n">
         <v>546205</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" t="n">
         <v>55</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="3">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="9" ht="13.9" customHeight="1" s="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>03/21/19</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" t="n">
         <v>85427</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" t="n">
         <v>300</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="3">
-      <c r="A10" s="4" t="inlineStr">
+    <row r="10" ht="13.9" customHeight="1" s="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>03/22/19</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" t="n">
         <v>666193</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" t="n">
         <v>450</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="3">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="11" ht="13.9" customHeight="1" s="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>03/22/19</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" t="n">
         <v>249242</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" t="n">
         <v>150</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="3">
-      <c r="A12" s="4" t="inlineStr">
+    <row r="12" ht="13.9" customHeight="1" s="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>08/17/22</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" t="n">
         <v>892861</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" t="n">
         <v>20</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="3">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="13" ht="13.9" customHeight="1" s="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>08/17/22</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" t="n">
         <v>690478</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" t="n">
         <v>345</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" t="n">
         <v>55.2</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="3">
+    <row r="14" ht="13.9" customHeight="1" s="1">
       <c r="A14" t="inlineStr">
         <is>
           <t>08/17/22</t>
@@ -748,18 +710,71 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="3"/>
-    <row r="16" ht="13.8" customHeight="1" s="3"/>
-    <row r="17" ht="13.8" customHeight="1" s="3"/>
-    <row r="18" ht="13.8" customHeight="1" s="3"/>
-    <row r="19" ht="13.8" customHeight="1" s="3"/>
-    <row r="20" ht="13.8" customHeight="1" s="3"/>
-    <row r="21" ht="13.8" customHeight="1" s="3"/>
-    <row r="1048575" ht="12.8" customHeight="1" s="3"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="3"/>
+    <row r="15" ht="13.9" customHeight="1" s="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08/21/22</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>871142</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1480</v>
+      </c>
+      <c r="E15" t="n">
+        <v>236.8</v>
+      </c>
+    </row>
+    <row r="16" ht="13.9" customHeight="1" s="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08/21/22</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>494050</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="17" ht="13.9" customHeight="1" s="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>08/21/22</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20523</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2520</v>
+      </c>
+      <c r="E17" t="n">
+        <v>403.2</v>
+      </c>
+    </row>
+    <row r="18" ht="13.9" customHeight="1" s="1"/>
+    <row r="19" ht="13.9" customHeight="1" s="1"/>
+    <row r="20" ht="13.9" customHeight="1" s="1"/>
+    <row r="21" ht="13.9" customHeight="1" s="1"/>
+    <row r="1048575" ht="12.75" customHeight="1" s="1"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>